--- a/Monster_Info.xlsx
+++ b/Monster_Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPGDataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E97B9B5-BAF9-4EAD-B58F-EB4FA167DAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A63DD54-1CC7-47A1-805F-4F29CE2F1BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="81">
   <si>
     <t>#변수 설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -326,6 +326,18 @@
   </si>
   <si>
     <t>BTL_CON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,49 +441,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
@@ -513,41 +483,6 @@
       <fill>
         <patternFill>
           <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1048,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1061,15 +996,16 @@
     <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.625" customWidth="1"/>
-    <col min="11" max="11" width="14.125" customWidth="1"/>
-    <col min="12" max="12" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.625" customWidth="1"/>
+    <col min="12" max="12" width="14.125" customWidth="1"/>
+    <col min="13" max="13" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1086,28 +1022,31 @@
         <v>7</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1124,7 +1063,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>12</v>
@@ -1132,11 +1071,14 @@
       <c r="H2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="I2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1153,19 +1095,22 @@
         <v>16</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>20</v>
       </c>
@@ -1179,57 +1124,60 @@
         <v>50</v>
       </c>
       <c r="F4" s="10">
+        <v>5</v>
+      </c>
+      <c r="G4" s="10">
         <v>2</v>
-      </c>
-      <c r="G4" s="10">
-        <v>300</v>
       </c>
       <c r="H4" s="10">
         <v>300</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="10">
+        <v>300</v>
+      </c>
+      <c r="J4" t="s">
         <v>52</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>74</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>48</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="I4:I5">
-    <cfRule type="expression" dxfId="5" priority="4">
-      <formula>AND(I4&lt;&gt;"", ISERROR(MATCH(I4, 특성테이블id, 0)))</formula>
+  <conditionalFormatting sqref="J4:J5">
+    <cfRule type="expression" dxfId="15" priority="4">
+      <formula>AND(J4&lt;&gt;"", ISERROR(MATCH(J4, 특성테이블id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K5">
-    <cfRule type="expression" dxfId="4" priority="3">
-      <formula>AND(K4&lt;&gt;"", ISERROR(MATCH(K4, 특수조건id, 0)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J5">
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>AND(J4&lt;&gt;"", ISERROR(MATCH(J4, 드롭테이블id, 0)))</formula>
+    <cfRule type="expression" dxfId="14" priority="2">
+      <formula>AND(K4&lt;&gt;"", ISERROR(MATCH(K4, 드롭테이블id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND(L4&lt;&gt;"", ISERROR(MATCH(L4, 드롭테이블id, 0)))</formula>
+    <cfRule type="expression" dxfId="13" priority="3">
+      <formula>AND(L4&lt;&gt;"", ISERROR(MATCH(L4, 특수조건id, 0)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:M5">
+    <cfRule type="expression" dxfId="12" priority="1">
+      <formula>AND(M4&lt;&gt;"", ISERROR(MATCH(M4, 드롭테이블id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I5" xr:uid="{14251A4C-726F-4010-8FA3-51A40B370DF0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J5" xr:uid="{14251A4C-726F-4010-8FA3-51A40B370DF0}">
       <formula1>특성테이블id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K5" xr:uid="{0B8CD17E-FF1C-4A82-B2E5-1A6876C64E8E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L5" xr:uid="{0B8CD17E-FF1C-4A82-B2E5-1A6876C64E8E}">
       <formula1>특수조건id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J5 L4:L5" xr:uid="{798259A7-8F38-4ACD-9499-CA36D2FEA58E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K5 M4:M5" xr:uid="{798259A7-8F38-4ACD-9499-CA36D2FEA58E}">
       <formula1>드롭테이블id</formula1>
     </dataValidation>
   </dataValidations>
@@ -1430,32 +1378,32 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D4:D8">
-    <cfRule type="expression" dxfId="24" priority="14">
+    <cfRule type="expression" dxfId="11" priority="14">
       <formula>AND(D4&lt;&gt;"", ISERROR(MATCH(D4, 속성id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E9">
-    <cfRule type="expression" dxfId="23" priority="13">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>AND(E4&lt;&gt;"", ISERROR(MATCH(E4, 효과id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G10">
-    <cfRule type="expression" dxfId="16" priority="4">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>AND(G4&lt;&gt;"", ISERROR(MATCH(G4, 속성id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H10">
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>AND(H4&lt;&gt;"", ISERROR(MATCH(H4, 효과id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J10">
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>AND(J4&lt;&gt;"", ISERROR(MATCH(J4, 속성id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K10">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>AND(K4&lt;&gt;"", ISERROR(MATCH(K4, 효과id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1817,7 +1765,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C13" t="str">
-        <f t="shared" ref="C7:C17" si="0">_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D13,E13,F13,G13),_xlfn.TEXTJOIN("/",TRUE,H13,I13,J13,K13),_xlfn.TEXTJOIN("/",TRUE,L13,M13,N13,O13))</f>
+        <f t="shared" ref="C13:C17" si="0">_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D13,E13,F13,G13),_xlfn.TEXTJOIN("/",TRUE,H13,I13,J13,K13),_xlfn.TEXTJOIN("/",TRUE,L13,M13,N13,O13))</f>
         <v/>
       </c>
       <c r="J13" s="10"/>
@@ -1849,32 +1797,32 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D4:D7">
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>AND(D4&lt;&gt;"", ISERROR(MATCH(D4, 광물id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D11">
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>AND(D8&lt;&gt;"", ISERROR(MATCH(D8, 약초id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H7">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>AND(H4&lt;&gt;"", ISERROR(MATCH(H4, 광물id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H11">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>AND(H8&lt;&gt;"", ISERROR(MATCH(H8, 약초id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L7">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>AND(L4&lt;&gt;"", ISERROR(MATCH(L4, 광물id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L11">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(L8&lt;&gt;"", ISERROR(MATCH(L8, 약초id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Monster_Info.xlsx
+++ b/Monster_Info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPGDataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A63DD54-1CC7-47A1-805F-4F29CE2F1BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426A72F8-1601-4D9A-A262-ED814DF97292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,9 @@
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="광물id">OFFSET([1]Mineral!$B$4,0,0,COUNTA([1]Mineral!$B:$B),1)</definedName>
     <definedName name="드롭테이블id">OFFSET(Monster_DropTable!$B$4,0,0,COUNTA(Monster_DropTable!$B:$B),1)</definedName>
     <definedName name="속성id">OFFSET(Monster_Property!$B$4,0,0,COUNTA(Monster_Property!$B:$B),1)</definedName>
-    <definedName name="약초id">OFFSET([1]Herb!$B$4,0,0,COUNTA([1]Herb!$B:$B),1)</definedName>
+    <definedName name="아이템id">OFFSET([1]DropItem!$B$4,0,0,COUNTA([1]DropItem!$B:$B),1)</definedName>
     <definedName name="특성테이블id">OFFSET(Monster_Property_Table!$B$4,0,0,COUNTA(Monster_Property_Table!$B:$B),1)</definedName>
     <definedName name="특수조건id">OFFSET(Monster_Condition!$B$4,0,0,COUNTA(Monster_Condition!$B:$B),1)</definedName>
     <definedName name="효과id">OFFSET(Monster_Property_Effect!$B$4,0,0,COUNTA(Monster_Property_Effect!$B:$B),1)</definedName>
@@ -53,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="82">
   <si>
     <t>#변수 설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,10 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MST_BTL_NOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>취약</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -263,10 +258,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MST_BTL_CON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>드롭테이블 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -309,26 +300,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ITM_MIN_CPR</t>
-  </si>
-  <si>
     <t>ITM_MIN_SIL</t>
   </si>
   <si>
-    <t>BTL_NOR</t>
-  </si>
-  <si>
-    <t>BTL_NOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BTL_CON</t>
-  </si>
-  <si>
-    <t>BTL_CON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이동속도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -338,6 +312,35 @@
   </si>
   <si>
     <t>Monster_speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_BTL_NOR</t>
+  </si>
+  <si>
+    <t>DT_BTL_NOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_BTL_CON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO_BTL_NOR</t>
+  </si>
+  <si>
+    <t>PRO_BTL_NOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO_BTL_CON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weakness_attack</t>
+  </si>
+  <si>
+    <t>Weakness_attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,13 +445,6 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -557,6 +553,13 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -579,8 +582,6 @@
     <sheetNames>
       <sheetName val="UseItem"/>
       <sheetName val="DropItem"/>
-      <sheetName val="Herb"/>
-      <sheetName val="Mineral"/>
       <sheetName val="Potion"/>
       <sheetName val="Tool"/>
       <sheetName val="Armor"/>
@@ -590,8 +591,7 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
+      <sheetData sheetId="1">
         <row r="1">
           <cell r="B1" t="str">
             <v>아이템 id</v>
@@ -609,58 +609,46 @@
         </row>
         <row r="4">
           <cell r="B4" t="str">
-            <v>ITM_HER_JSM</v>
+            <v>ITM_DRP_001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>ITM_HER_JNB</v>
+            <v>ITM_HER_JSM</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6" t="str">
+            <v>ITM_HER_JNB</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
             <v>ITM_HER_RSM</v>
           </cell>
         </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>아이템 id</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>string</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>Item_id</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
+        <row r="8">
+          <cell r="B8" t="str">
             <v>ITM_MIN_CPR</v>
           </cell>
         </row>
-        <row r="5">
-          <cell r="B5" t="str">
+        <row r="9">
+          <cell r="B9" t="str">
             <v>ITM_MIN_SIL</v>
           </cell>
         </row>
-        <row r="6">
-          <cell r="B6" t="str">
+        <row r="10">
+          <cell r="B10" t="str">
             <v>ITM_MIN_GOL</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -986,7 +974,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1001,7 +989,7 @@
     <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.75" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="15.625" customWidth="1"/>
-    <col min="12" max="12" width="14.125" customWidth="1"/>
+    <col min="12" max="12" width="16.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1022,7 +1010,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>8</v>
@@ -1063,7 +1051,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>12</v>
@@ -1095,7 +1083,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>17</v>
@@ -1136,16 +1124,16 @@
         <v>300</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="K4" t="s">
         <v>74</v>
       </c>
       <c r="L4" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="M4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1190,7 +1178,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1222,7 +1210,7 @@
         <v>34</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>51</v>
@@ -1231,7 +1219,7 @@
         <v>35</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>51</v>
@@ -1240,7 +1228,7 @@
         <v>36</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>51</v>
@@ -1273,7 +1261,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="C4" s="10" t="str">
         <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D4,E4,F4),_xlfn.TEXTJOIN("/",TRUE,G4,H4,I4),_xlfn.TEXTJOIN("/",TRUE,J4,K4,L4))</f>
@@ -1299,7 +1287,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C5" s="10" t="str">
         <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D5,E5,F5),_xlfn.TEXTJOIN("/",TRUE,G5,H5,I5),_xlfn.TEXTJOIN("/",TRUE,J5,K5,L5))</f>
@@ -1318,7 +1306,7 @@
         <v>30</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I5" s="10">
         <v>70</v>
@@ -1527,10 +1515,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -1560,7 +1548,7 @@
         <v>49</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -1570,10 +1558,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1587,7 +1575,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1604,46 +1592,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="7" t="s">
+      <c r="M1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1674,10 +1662,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -1701,7 +1689,7 @@
         <v>ITM_MIN_CPR/100/2/3</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -1717,14 +1705,14 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" t="str">
         <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D5,E5,F5,G5),_xlfn.TEXTJOIN("/",TRUE,H5,I5,J5,K5),_xlfn.TEXTJOIN("/",TRUE,L5,M5,N5,O5))</f>
         <v>ITM_MIN_CPR/50/1/2~ITM_MIN_SIL/50/1/3</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E5">
         <v>50</v>
@@ -1736,7 +1724,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I5">
         <v>50</v>
@@ -1750,7 +1738,9 @@
       <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D6" s="10"/>
+      <c r="D6" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="H6" s="10"/>
       <c r="J6" s="11"/>
       <c r="L6" s="10"/>
@@ -1797,43 +1787,46 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D4:D7">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>AND(D4&lt;&gt;"", ISERROR(MATCH(D4, 광물id, 0)))</formula>
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>AND(D4&lt;&gt;"", ISERROR(MATCH(D4, 아이템id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D11">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>AND(D8&lt;&gt;"", ISERROR(MATCH(D8, 약초id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H7">
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>AND(H4&lt;&gt;"", ISERROR(MATCH(H4, 광물id, 0)))</formula>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>AND(H4&lt;&gt;"", ISERROR(MATCH(H4, 아이템id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H11">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>AND(H8&lt;&gt;"", ISERROR(MATCH(H8, 약초id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L7">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>AND(L4&lt;&gt;"", ISERROR(MATCH(L4, 광물id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L11">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(L8&lt;&gt;"", ISERROR(MATCH(L8, 약초id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D11 H8:H11 L8:L11" xr:uid="{083CF207-EDD0-41FA-A3A9-1F8BBEEBA385}">
       <formula1>약초id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="데이터 없음" sqref="D4:D7 H4:H7 L4:L7" xr:uid="{337B8777-565F-40E0-BAF2-03441911EECA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="데이터 없음" sqref="L4:L7 D7 H4 H6:H7" xr:uid="{337B8777-565F-40E0-BAF2-03441911EECA}">
       <formula1>광물id</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4" xr:uid="{500622B0-BA70-4ECB-93BF-8BCA17533C1F}">
+      <formula1>아이템id</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="데이터 없음" sqref="D4:D6 H5" xr:uid="{0DB2A5F9-30F8-4BBB-B94A-818C3A33787F}">
       <formula1>아이템id</formula1>
     </dataValidation>
   </dataValidations>
@@ -1846,13 +1839,13 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
@@ -1896,7 +1889,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>50</v>

--- a/Monster_Info.xlsx
+++ b/Monster_Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPGDataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426A72F8-1601-4D9A-A262-ED814DF97292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFC0688-F52C-4C8A-85D0-5ED4FC4C24DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="85">
   <si>
     <t>#변수 설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,10 +196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Condition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>조건 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -341,6 +337,22 @@
   </si>
   <si>
     <t>Weakness_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_condition_DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_condition</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,6 +460,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
@@ -479,13 +498,6 @@
       <fill>
         <patternFill>
           <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -973,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -988,9 +1000,9 @@
     <col min="7" max="7" width="23.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.625" customWidth="1"/>
-    <col min="12" max="12" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.625" customWidth="1"/>
+    <col min="10" max="10" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.625" customWidth="1"/>
+    <col min="12" max="13" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -1010,7 +1022,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>8</v>
@@ -1051,7 +1063,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>12</v>
@@ -1062,7 +1074,16 @@
       <c r="I2" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="J2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="L2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1083,7 +1104,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>17</v>
@@ -1094,8 +1115,17 @@
       <c r="I3" s="9" t="s">
         <v>19</v>
       </c>
+      <c r="J3" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>82</v>
+      </c>
       <c r="L3" s="9" t="s">
-        <v>43</v>
+        <v>84</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1124,16 +1154,16 @@
         <v>300</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1177,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5E488C-5698-4BB8-9C5E-1FC627A56FA2}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1210,28 +1240,28 @@
         <v>34</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>36</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M1" s="7" t="s">
         <v>37</v>
@@ -1245,7 +1275,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1261,7 +1291,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="10" t="str">
         <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D4,E4,F4),_xlfn.TEXTJOIN("/",TRUE,G4,H4,I4),_xlfn.TEXTJOIN("/",TRUE,J4,K4,L4))</f>
@@ -1271,7 +1301,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="10">
         <v>50</v>
@@ -1287,7 +1317,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="10" t="str">
         <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D5,E5,F5),_xlfn.TEXTJOIN("/",TRUE,G5,H5,I5),_xlfn.TEXTJOIN("/",TRUE,J5,K5,L5))</f>
@@ -1297,7 +1327,7 @@
         <v>26</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="10">
         <v>50</v>
@@ -1306,7 +1336,7 @@
         <v>30</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I5" s="10">
         <v>70</v>
@@ -1515,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -1545,10 +1575,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -1558,10 +1588,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1592,46 +1622,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="M1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1662,10 +1692,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -1682,14 +1712,14 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" t="str">
         <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D4,E4,F4,G4),_xlfn.TEXTJOIN("/",TRUE,H4,I4,J4,K4),_xlfn.TEXTJOIN("/",TRUE,L4,M4,N4,O4))</f>
         <v>ITM_MIN_CPR/100/2/3</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -1705,14 +1735,14 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" t="str">
         <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D5,E5,F5,G5),_xlfn.TEXTJOIN("/",TRUE,H5,I5,J5,K5),_xlfn.TEXTJOIN("/",TRUE,L5,M5,N5,O5))</f>
         <v>ITM_MIN_CPR/50/1/2~ITM_MIN_SIL/50/1/3</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5">
         <v>50</v>
@@ -1724,7 +1754,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I5">
         <v>50</v>
@@ -1739,7 +1769,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D6" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H6" s="10"/>
       <c r="J6" s="11"/>
@@ -1787,32 +1817,32 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D4:D7">
-    <cfRule type="expression" dxfId="0" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>AND(D4&lt;&gt;"", ISERROR(MATCH(D4, 아이템id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D11">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>AND(D8&lt;&gt;"", ISERROR(MATCH(D8, 약초id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H7">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>AND(H4&lt;&gt;"", ISERROR(MATCH(H4, 아이템id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H11">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>AND(H8&lt;&gt;"", ISERROR(MATCH(H8, 약초id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L7">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>AND(L4&lt;&gt;"", ISERROR(MATCH(L4, 광물id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L11">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>AND(L8&lt;&gt;"", ISERROR(MATCH(L8, 약초id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1859,10 +1889,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -1881,18 +1911,18 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>

--- a/Monster_Info.xlsx
+++ b/Monster_Info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPGDataFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\2_UNITIYGAME\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFC0688-F52C-4C8A-85D0-5ED4FC4C24DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65B8920-6854-4895-A52C-7F071B8C1C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="1" r:id="rId1"/>
@@ -586,24 +586,25 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
+      <sheetName val="Item"/>
       <sheetName val="UseItem"/>
       <sheetName val="DropItem"/>
+      <sheetName val="Weapon"/>
+      <sheetName val="Armor"/>
+      <sheetName val="Backpack"/>
+      <sheetName val="Pouch"/>
       <sheetName val="Potion"/>
-      <sheetName val="Tool"/>
-      <sheetName val="Armor"/>
       <sheetName val="ResourceNode"/>
       <sheetName val="ResourceNode_DropTable"/>
       <sheetName val="Condition"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
         <row r="1">
           <cell r="B1" t="str">
             <v>아이템 id</v>
@@ -616,51 +617,23 @@
         </row>
         <row r="3">
           <cell r="B3" t="str">
-            <v>Item_id</v>
+            <v>UseItem_id</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4" t="str">
-            <v>ITM_DRP_001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>ITM_HER_JSM</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>ITM_HER_JNB</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>ITM_HER_RSM</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>ITM_MIN_CPR</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>ITM_MIN_SIL</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>ITM_MIN_GOL</v>
+            <v>PAR_DRP_SCR</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1208,7 +1181,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1525,7 +1498,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1605,7 +1578,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
